--- a/data/j5_actualizada.xlsx
+++ b/data/j5_actualizada.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
